--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value166.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value166.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.556104881526895</v>
+        <v>1.06334924697876</v>
       </c>
       <c r="B1">
-        <v>1.76643603632552</v>
+        <v>5.190731525421143</v>
       </c>
       <c r="C1">
-        <v>1.75462323812596</v>
+        <v>3.279706239700317</v>
       </c>
       <c r="D1">
-        <v>2.197633290705002</v>
+        <v>2.292347431182861</v>
       </c>
       <c r="E1">
-        <v>1.83583894569333</v>
+        <v>2.090254545211792</v>
       </c>
     </row>
   </sheetData>
